--- a/Ablag_Exports/Meldung_AB_FZ_20241012.xlsx
+++ b/Ablag_Exports/Meldung_AB_FZ_20241012.xlsx
@@ -1,24 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BVB30103866\OneDrive - Basler Verkehrs-Betriebe\Desktop\Documents\github\Ablag_Exports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_BD929E4BC4094ECA35217C07B85836C02CEAAE99" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB341B3B-E62C-47E9-A7B4-F0672A962EA2}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$33</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -262,7 +250,8 @@
     <t>FT-TB0301S-TB0322-06</t>
   </si>
   <si>
-    <t>Längslänker sind ausgeschlagen</t>
+    <t>Längslänker sind ausgeschlagen
+</t>
   </si>
   <si>
     <t>300128971</t>
@@ -409,17 +398,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +424,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,8 +464,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,349 +481,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="16" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="16" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="22" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="16" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="22" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="14" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="20" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="15" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="11" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="42" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="9" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -853,7 +563,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +581,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H2" s="2">
         <v>45117</v>
@@ -892,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -906,11 +616,11 @@
         <v>45355</v>
       </c>
       <c r="E3" s="3">
-        <v>0.99998842592592996</v>
+        <v>0.99998842592593</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H3" s="2">
         <v>45363</v>
@@ -931,7 +641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -945,11 +655,11 @@
         <v>45409</v>
       </c>
       <c r="E4" s="3">
-        <v>0.59510416666666999</v>
+        <v>0.59510416666667</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H4" s="2">
         <v>45409</v>
@@ -970,7 +680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -984,11 +694,11 @@
         <v>45427</v>
       </c>
       <c r="E5" s="3">
-        <v>0.39796296296296002</v>
+        <v>0.39796296296296</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H5" s="2">
         <v>45427</v>
@@ -1009,7 +719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1023,11 +733,11 @@
         <v>45443</v>
       </c>
       <c r="E6" s="3">
-        <v>0.97452546296296005</v>
+        <v>0.97452546296296</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H6" s="2">
         <v>45443</v>
@@ -1048,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1062,11 +772,11 @@
         <v>45463</v>
       </c>
       <c r="E7" s="3">
-        <v>0.66842592592592998</v>
+        <v>0.66842592592593</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H7" s="2">
         <v>45463</v>
@@ -1087,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1101,11 +811,11 @@
         <v>45468</v>
       </c>
       <c r="E8" s="3">
-        <v>0.99998842592592996</v>
+        <v>0.99998842592593</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H8" s="2">
         <v>45495</v>
@@ -1126,7 +836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1140,11 +850,11 @@
         <v>45526</v>
       </c>
       <c r="E9" s="3">
-        <v>0.44587962962963001</v>
+        <v>0.44587962962963</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H9" s="2">
         <v>45526</v>
@@ -1165,7 +875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1179,11 +889,11 @@
         <v>45533</v>
       </c>
       <c r="E10" s="3">
-        <v>0.67665509259259005</v>
+        <v>0.67665509259259</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H10" s="2">
         <v>45533</v>
@@ -1204,7 +914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1218,11 +928,11 @@
         <v>45533</v>
       </c>
       <c r="E11" s="3">
-        <v>0.68186342592592997</v>
+        <v>0.68186342592593</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H11" s="2">
         <v>45533</v>
@@ -1243,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1257,11 +967,11 @@
         <v>45533</v>
       </c>
       <c r="E12" s="3">
-        <v>0.64305555555556004</v>
+        <v>0.64305555555556</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H12" s="2">
         <v>45537</v>
@@ -1282,7 +992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1296,11 +1006,11 @@
         <v>45533</v>
       </c>
       <c r="E13" s="3">
-        <v>0.65069444444444002</v>
+        <v>0.65069444444444</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H13" s="2">
         <v>45537</v>
@@ -1321,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1339,7 +1049,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H14" s="2">
         <v>45537</v>
@@ -1360,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1374,11 +1084,11 @@
         <v>45539</v>
       </c>
       <c r="E15" s="3">
-        <v>0.51046296296296001</v>
+        <v>0.51046296296296</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H15" s="2">
         <v>45539</v>
@@ -1399,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1413,11 +1123,11 @@
         <v>45537</v>
       </c>
       <c r="E16" s="3">
-        <v>0.64046296296296001</v>
+        <v>0.64046296296296</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H16" s="2">
         <v>45539</v>
@@ -1438,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1452,11 +1162,11 @@
         <v>45541</v>
       </c>
       <c r="E17" s="3">
-        <v>0.38618055555556002</v>
+        <v>0.38618055555556</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H17" s="2">
         <v>45541</v>
@@ -1477,7 +1187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1491,11 +1201,11 @@
         <v>45537</v>
       </c>
       <c r="E18" s="3">
-        <v>0.57446759259258995</v>
+        <v>0.57446759259259</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H18" s="2">
         <v>45544</v>
@@ -1516,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1530,11 +1240,11 @@
         <v>45551</v>
       </c>
       <c r="E19" s="3">
-        <v>0.55627314814814999</v>
+        <v>0.55627314814815</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H19" s="2">
         <v>45551</v>
@@ -1555,7 +1265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1569,11 +1279,11 @@
         <v>45552</v>
       </c>
       <c r="E20" s="3">
-        <v>0.51805555555556004</v>
+        <v>0.51805555555556</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H20" s="2">
         <v>45552</v>
@@ -1594,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1608,11 +1318,11 @@
         <v>45553</v>
       </c>
       <c r="E21" s="3">
-        <v>0.45783564814814998</v>
+        <v>0.45783564814815</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H21" s="2">
         <v>45553</v>
@@ -1633,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1651,7 +1361,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H22" s="2">
         <v>45566</v>
@@ -1672,7 +1382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1686,11 +1396,11 @@
         <v>45572</v>
       </c>
       <c r="E23" s="3">
-        <v>0.39583333333332998</v>
+        <v>0.39583333333333</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H23" s="2">
         <v>45572</v>
@@ -1711,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1725,11 +1435,11 @@
         <v>45572</v>
       </c>
       <c r="E24" s="3">
-        <v>0.46185185185185001</v>
+        <v>0.46185185185185</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H24" s="2">
         <v>45572</v>
@@ -1750,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1764,11 +1474,11 @@
         <v>45572</v>
       </c>
       <c r="E25" s="3">
-        <v>0.63324074074073999</v>
+        <v>0.63324074074074</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H25" s="2">
         <v>45572</v>
@@ -1789,7 +1499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1803,11 +1513,11 @@
         <v>45573</v>
       </c>
       <c r="E26" s="3">
-        <v>0.63145833333333001</v>
+        <v>0.63145833333333</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H26" s="2">
         <v>45573</v>
@@ -1828,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1842,11 +1552,11 @@
         <v>45574</v>
       </c>
       <c r="E27" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H27" s="2">
         <v>45574</v>
@@ -1867,7 +1577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1881,11 +1591,11 @@
         <v>45574</v>
       </c>
       <c r="E28" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H28" s="2">
         <v>45574</v>
@@ -1906,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1920,11 +1630,11 @@
         <v>45574</v>
       </c>
       <c r="E29" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H29" s="2">
         <v>45574</v>
@@ -1945,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1959,11 +1669,11 @@
         <v>45574</v>
       </c>
       <c r="E30" s="3">
-        <v>0.67749999999999999</v>
+        <v>0.67750000000000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H30" s="2">
         <v>45574</v>
@@ -1984,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -1998,11 +1708,11 @@
         <v>45575</v>
       </c>
       <c r="E31" s="3">
-        <v>0.46239583333333001</v>
+        <v>0.46239583333333</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H31" s="2">
         <v>45575</v>
@@ -2023,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -2037,11 +1747,11 @@
         <v>45575</v>
       </c>
       <c r="E32" s="3">
-        <v>0.57480324074073996</v>
+        <v>0.57480324074074</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H32" s="2">
         <v>45575</v>
@@ -2062,7 +1772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2076,11 +1786,11 @@
         <v>45577</v>
       </c>
       <c r="E33" s="3">
-        <v>0.44300925925925999</v>
+        <v>0.44300925925926</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H33" s="2">
         <v>45577</v>
@@ -2102,11 +1812,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M33" xr:uid="{C0F69A1E-FFAE-4922-9669-3F290C939D9C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M33">
-      <sortCondition ref="A1:A33"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
